--- a/biology/Botanique/Parc_des_Champs-Élysées_de_Saint-Quentin/Parc_des_Champs-Élysées_de_Saint-Quentin.xlsx
+++ b/biology/Botanique/Parc_des_Champs-Élysées_de_Saint-Quentin/Parc_des_Champs-Élysées_de_Saint-Quentin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
+          <t>Parc_des_Champs-Élysées_de_Saint-Quentin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc des Champs-Élysées de Saint-Quentin est un parc et un arboretum aménagé  au centre de la ville de Saint-Quentin, dans le département de l'Aisne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
+          <t>Parc_des_Champs-Élysées_de_Saint-Quentin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est par le décret du 28 avril 1810, signé à Cambrai, que Napoléon Ier décida la démolition des fortifications de la ville de Saint-Quentin au lendemain de son séjour pour l'inauguration du Canal de  Saint-Quentin : " ...les fortifications seront démolies. Nous faisons donation à la ville des matériaux des dites fortifications ainsi que des terrains qu'elles occupent. Un boulevard sera créé autour de la ville sur leur emplacement et il y sera établi des promenades publiques…"
 Ce n'est que dans les années 1830 que l'aménagement du parc commença avec le nivellement du terrain sous la direction de M. de Baudreuil dont la rue qui borde le parc côté ville porte le nom.
@@ -521,8 +535,43 @@
 En 1985, les tilleuls de l'allée centrale sont remplacés par 200 platanes acrifolias. En 1992, ce sont les marronniers qui bordaient la rue de Baudreuil qui sont remplacés par des robiniers faux-acacias. Depuis les années 2000, des tulipiers de Virginie, réputés résistants aux maladies, bordent le boulevard Gambetta.
 			Le premier bâtiment du parc, aujourd'hui disparu, construit en 1870 dans le Jardin d'horticulture .
 			Le chalet du Jeu de Paume bâti dans les années 1890.
-L'arboretum
-Actuellement, le parc compte environ 700 arbres, dont
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parc_des_Champs-Élysées_de_Saint-Quentin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L'arboretum</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actuellement, le parc compte environ 700 arbres, dont
 104 tulipiers de Virginie plantés en 1999 le long du boulevard Gambetta et de la rue de Baudreuil.
 37 robiniers faux-acacias plantés en 1992 en haut de la rue de Baudreuil.
 159 platanes à feuille d'érable qui ont remplacé, en 1885, les tilleuls malades de l'allée centrale et des deux allées latérales.
@@ -540,31 +589,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_des_Champs-Élysées_de_Saint-Quentin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Le jardin d'horticulture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1870, la Société d'horticulture, créée en 1864, obtient de la ville un terrain abandonné situé au nord des Champs-Élysées pour y établir un jardin d'agrément. Sur les plans de l'architecte Joseph Chérier, un chalet a été construit.
 Évoluant au fil du temps, ce jardin comporte de nos jours de nombreuses essences, quelques statues, un bassin avec un jet d'eau…
@@ -579,36 +630,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_des_Champs-Élysées_de_Saint-Quentin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>La Fontaine de Vasson</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Mme de Guerbigny-Vasson fit, en 1908, un legs de 180 000 francs à la ville en vue d'édifier une fontaine monumentale aux Champs-Élysées à la gloire de l'agriculture.
 C'est au bord de l'avenue de Remicourt, juste en face de l'allée centrale du parc, que fut construite en 1913 la Fontaine de Vasson dont l'élément central était un bœuf énorme.
 Très endommagée pendant la Grande Guerre, surtout lors des combats d'octobre 1918, elle fut rénovée au début des années 1920.
-Ayant subi de nouveaux dégâts en 1944, peu appréciée des Saint-Quentinois qui la surnommaient La Vache, elle fut finalement démolie en 1966 pour faire place au Palais des Sports [1].
+Ayant subi de nouveaux dégâts en 1944, peu appréciée des Saint-Quentinois qui la surnommaient La Vache, elle fut finalement démolie en 1966 pour faire place au Palais des Sports .
 			Vue globale de la Fontaine au milieu de l'avenue de Remicourt.
 			Vue d'ensemble de la fontaine après sa restauration en 1926.
 			Gros plan sur la sculpture centrale : un bœuf dominant un faucheur  qui aiguise sa faux, embrassé par son fils, son épouse qui lui apporte son repas, à gauche un laboureur et sa charrue, à droite un berger.
@@ -617,31 +670,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_des_Champs-Élysées_de_Saint-Quentin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Le kiosque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Monument emblématique des Champs-Élysées, le kiosque, qui trône à l'intersection de l'allée centrale et des allées Florent-Débuisson et Moïse-Godet, fut inauguré en août 1877. Chaque dimanche, pendant près d'un siècle, il était le rendez-vous incontournable des Saint-Quentinois qui s'y promenaient en écoutant le concert donné par la musique du 87e régiment d'infanterie ou de l'harmonie municipale.
 Comme le prouve la carte postale de 1919, le kiosque fut épargné lors des combats d'octobre 1918.
@@ -656,31 +711,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_des_Champs-Élysées_de_Saint-Quentin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Les Champs-Élysées au fil des saisons</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Printemps.
@@ -694,31 +751,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parc_des_Champs-Élysées_de_Saint-Quentin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Les Champs-Élysées au fil du temps</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Coucher de soleil.
@@ -738,31 +797,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parc_des_Champs-Élysées_de_Saint-Quentin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parc_des_Champs-%C3%89lys%C3%A9es_de_Saint-Quentin</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Manifestations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
